--- a/data/pca/factorExposure/factorExposure_2017-09-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02358217207314608</v>
+        <v>0.006328761356279253</v>
       </c>
       <c r="C2">
-        <v>-0.0002634394098266281</v>
+        <v>0.04152301410555397</v>
       </c>
       <c r="D2">
-        <v>0.0156237480449019</v>
+        <v>-0.02956478683471128</v>
       </c>
       <c r="E2">
-        <v>-0.007982894687550226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03183824999238441</v>
+      </c>
+      <c r="F2">
+        <v>0.02593141754391668</v>
+      </c>
+      <c r="G2">
+        <v>0.03500010941669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01382676726390646</v>
+        <v>0.0507023019266782</v>
       </c>
       <c r="C3">
-        <v>-0.04650390949324446</v>
+        <v>0.07714504564034412</v>
       </c>
       <c r="D3">
-        <v>0.01182840106909452</v>
+        <v>-0.01499674497058645</v>
       </c>
       <c r="E3">
-        <v>-0.002026944513764461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08899529030847116</v>
+      </c>
+      <c r="F3">
+        <v>0.06152875794242709</v>
+      </c>
+      <c r="G3">
+        <v>0.08261678206324208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02214593024091081</v>
+        <v>0.05393772994740358</v>
       </c>
       <c r="C4">
-        <v>-0.01562682730799677</v>
+        <v>0.06241115189228243</v>
       </c>
       <c r="D4">
-        <v>0.061354510530861</v>
+        <v>-0.02315527453274994</v>
       </c>
       <c r="E4">
-        <v>0.01824807379485158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01685904275584744</v>
+      </c>
+      <c r="F4">
+        <v>0.01050410058427685</v>
+      </c>
+      <c r="G4">
+        <v>0.05602397459905741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01508166046445554</v>
+        <v>0.03476156435792461</v>
       </c>
       <c r="C6">
-        <v>-0.01605820770883137</v>
+        <v>0.04958752282149991</v>
       </c>
       <c r="D6">
-        <v>0.07916452257385831</v>
+        <v>-0.01567071212229081</v>
       </c>
       <c r="E6">
-        <v>0.01035051260770042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01652656752046791</v>
+      </c>
+      <c r="F6">
+        <v>0.01383974972800595</v>
+      </c>
+      <c r="G6">
+        <v>0.03561349040094293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0099493324299762</v>
+        <v>0.01416297086107828</v>
       </c>
       <c r="C7">
-        <v>-0.0004018290383415917</v>
+        <v>0.03513852278890962</v>
       </c>
       <c r="D7">
-        <v>0.03050943633904545</v>
+        <v>-0.01331976494991072</v>
       </c>
       <c r="E7">
-        <v>0.07306526722391357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.008601599146538446</v>
+      </c>
+      <c r="F7">
+        <v>0.008938029015922362</v>
+      </c>
+      <c r="G7">
+        <v>0.09121267842557228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001078155919132741</v>
+        <v>-0.002479087206325257</v>
       </c>
       <c r="C8">
-        <v>0.003765912796788549</v>
+        <v>0.01875262823597856</v>
       </c>
       <c r="D8">
-        <v>0.006288579629518996</v>
+        <v>-0.004069256532335529</v>
       </c>
       <c r="E8">
-        <v>0.007561329232398422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02310773556165148</v>
+      </c>
+      <c r="F8">
+        <v>0.02482516411326525</v>
+      </c>
+      <c r="G8">
+        <v>0.02716014027377898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01480210277942299</v>
+        <v>0.02965608729501213</v>
       </c>
       <c r="C9">
-        <v>-0.01473133977898083</v>
+        <v>0.04293716951262346</v>
       </c>
       <c r="D9">
-        <v>0.04641079172127702</v>
+        <v>-0.01603705200040801</v>
       </c>
       <c r="E9">
-        <v>0.008853533671072498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01300856520233228</v>
+      </c>
+      <c r="F9">
+        <v>0.01690810304028549</v>
+      </c>
+      <c r="G9">
+        <v>0.04791308466201292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01311526222366678</v>
+        <v>0.09368303201653337</v>
       </c>
       <c r="C10">
-        <v>-0.1641111912399331</v>
+        <v>-0.1841580073237168</v>
       </c>
       <c r="D10">
-        <v>-0.1177860005734966</v>
+        <v>0.01744792057650005</v>
       </c>
       <c r="E10">
-        <v>0.009580706334772785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01230021208799145</v>
+      </c>
+      <c r="F10">
+        <v>-0.01636419565183683</v>
+      </c>
+      <c r="G10">
+        <v>0.04662621668740756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002086235077888391</v>
+        <v>0.03028314532061087</v>
       </c>
       <c r="C11">
-        <v>-0.004901787288985086</v>
+        <v>0.05366212732688707</v>
       </c>
       <c r="D11">
-        <v>0.0435243125103958</v>
+        <v>-0.002298865621962447</v>
       </c>
       <c r="E11">
-        <v>-0.006736695092090746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.00696842991733742</v>
+      </c>
+      <c r="F11">
+        <v>0.02545856239049854</v>
+      </c>
+      <c r="G11">
+        <v>0.02997546702649523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005696242328852715</v>
+        <v>0.03036401802366231</v>
       </c>
       <c r="C12">
-        <v>-0.01314434352790842</v>
+        <v>0.04646464089513312</v>
       </c>
       <c r="D12">
-        <v>0.04565421720146914</v>
+        <v>-0.0063041936304858</v>
       </c>
       <c r="E12">
-        <v>0.002153269153427731</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0008591120095337675</v>
+      </c>
+      <c r="F12">
+        <v>0.009856753731798621</v>
+      </c>
+      <c r="G12">
+        <v>0.03267387472054951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02134344651426748</v>
+        <v>0.01373160041228049</v>
       </c>
       <c r="C13">
-        <v>-0.01102917484553539</v>
+        <v>0.03155112068665653</v>
       </c>
       <c r="D13">
-        <v>0.01325491449515882</v>
+        <v>-0.02502154608206476</v>
       </c>
       <c r="E13">
-        <v>-0.005648642888492572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02310332207567901</v>
+      </c>
+      <c r="F13">
+        <v>0.01774031464019263</v>
+      </c>
+      <c r="G13">
+        <v>0.0450761320978556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007026469847481039</v>
+        <v>0.007158962735693476</v>
       </c>
       <c r="C14">
-        <v>-0.01135344459839878</v>
+        <v>0.02564857791760069</v>
       </c>
       <c r="D14">
-        <v>0.01551379343256476</v>
+        <v>-0.008653802218512002</v>
       </c>
       <c r="E14">
-        <v>0.01287481452335346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.005018294892773351</v>
+      </c>
+      <c r="F14">
+        <v>-0.0004009145131544874</v>
+      </c>
+      <c r="G14">
+        <v>0.04956997796415861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0008504351526564577</v>
+        <v>0.02986497460975108</v>
       </c>
       <c r="C16">
-        <v>-0.01188202788914746</v>
+        <v>0.04450357314529416</v>
       </c>
       <c r="D16">
-        <v>0.04649786385526165</v>
+        <v>-0.001795729780157626</v>
       </c>
       <c r="E16">
-        <v>0.0005205215054221655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007145658417591591</v>
+      </c>
+      <c r="F16">
+        <v>0.01308762424860605</v>
+      </c>
+      <c r="G16">
+        <v>0.03122757879780163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01306349689150505</v>
+        <v>0.02324047791507701</v>
       </c>
       <c r="C19">
-        <v>-0.02222629337990213</v>
+        <v>0.04791044075713331</v>
       </c>
       <c r="D19">
-        <v>0.02141646755445898</v>
+        <v>-0.01638843467987547</v>
       </c>
       <c r="E19">
-        <v>0.00670397206380004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0559187794429379</v>
+      </c>
+      <c r="F19">
+        <v>0.03329001889533206</v>
+      </c>
+      <c r="G19">
+        <v>0.05666303272615698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009985524350442929</v>
+        <v>0.01116809484153549</v>
       </c>
       <c r="C20">
-        <v>-0.003916588901516295</v>
+        <v>0.03345977891795223</v>
       </c>
       <c r="D20">
-        <v>0.0113115961200185</v>
+        <v>-0.01317002511662056</v>
       </c>
       <c r="E20">
-        <v>0.0008394633859732061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02393305487656856</v>
+      </c>
+      <c r="F20">
+        <v>0.002135577975838576</v>
+      </c>
+      <c r="G20">
+        <v>0.04657337436326121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01412166939754799</v>
+        <v>0.01326395722828213</v>
       </c>
       <c r="C21">
-        <v>-0.02805961549205849</v>
+        <v>0.03569708334470519</v>
       </c>
       <c r="D21">
-        <v>0.02024388230286849</v>
+        <v>-0.01658316922816392</v>
       </c>
       <c r="E21">
-        <v>0.02040417118492453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03077927206431928</v>
+      </c>
+      <c r="F21">
+        <v>0.01004760951351671</v>
+      </c>
+      <c r="G21">
+        <v>0.06870395233675464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004718266932700783</v>
+        <v>0.02336624815045917</v>
       </c>
       <c r="C24">
-        <v>-0.003304974157563259</v>
+        <v>0.04731242204752534</v>
       </c>
       <c r="D24">
-        <v>0.0426819851233897</v>
+        <v>-0.007203904527152283</v>
       </c>
       <c r="E24">
-        <v>-0.001341476468848879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.003107596552884624</v>
+      </c>
+      <c r="F24">
+        <v>0.02272692931117594</v>
+      </c>
+      <c r="G24">
+        <v>0.03260951754904217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01134084194183591</v>
+        <v>0.03820015182605385</v>
       </c>
       <c r="C25">
-        <v>-0.02009761627777346</v>
+        <v>0.05518651215328239</v>
       </c>
       <c r="D25">
-        <v>0.04345187762121563</v>
+        <v>-0.01132206031276555</v>
       </c>
       <c r="E25">
-        <v>-0.0002811254218405223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.003950748521705519</v>
+      </c>
+      <c r="F25">
+        <v>0.01831001738295335</v>
+      </c>
+      <c r="G25">
+        <v>0.03920822989809051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02252410571942151</v>
+        <v>0.01144145709800793</v>
       </c>
       <c r="C26">
-        <v>-0.00872554136867406</v>
+        <v>0.008968908222797417</v>
       </c>
       <c r="D26">
-        <v>-0.00689197923134297</v>
+        <v>-0.02346004787000412</v>
       </c>
       <c r="E26">
-        <v>0.009778555403719469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003215682046116174</v>
+      </c>
+      <c r="F26">
+        <v>0.0006607457700799474</v>
+      </c>
+      <c r="G26">
+        <v>0.03657498746034567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03260117802574863</v>
+        <v>0.1205379191186045</v>
       </c>
       <c r="C28">
-        <v>-0.2409591618571535</v>
+        <v>-0.2304220344205704</v>
       </c>
       <c r="D28">
-        <v>-0.1656352986883034</v>
+        <v>0.008499579588879166</v>
       </c>
       <c r="E28">
-        <v>0.0167591697167186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0005904422323744096</v>
+      </c>
+      <c r="F28">
+        <v>-0.01462645532412525</v>
+      </c>
+      <c r="G28">
+        <v>0.06414473733494246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007267607173270211</v>
+        <v>0.01054306834006983</v>
       </c>
       <c r="C29">
-        <v>-0.01634674329696864</v>
+        <v>0.02000537412228435</v>
       </c>
       <c r="D29">
-        <v>0.01241214180919023</v>
+        <v>-0.007449348371747356</v>
       </c>
       <c r="E29">
-        <v>0.007804731285831351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007096808390180872</v>
+      </c>
+      <c r="F29">
+        <v>-0.009392691486138562</v>
+      </c>
+      <c r="G29">
+        <v>0.04010630620289307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02281441401550443</v>
+        <v>0.04202518804931383</v>
       </c>
       <c r="C30">
-        <v>0.00186519743270405</v>
+        <v>0.06424243645276378</v>
       </c>
       <c r="D30">
-        <v>0.06586666735315176</v>
+        <v>-0.0276639311267876</v>
       </c>
       <c r="E30">
-        <v>-0.0546781505565645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04147004134559152</v>
+      </c>
+      <c r="F30">
+        <v>0.05526932108155731</v>
+      </c>
+      <c r="G30">
+        <v>0.01834891464553423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007804724526426019</v>
+        <v>0.04875765384922454</v>
       </c>
       <c r="C31">
-        <v>-0.04267215501088499</v>
+        <v>0.03338459780580336</v>
       </c>
       <c r="D31">
-        <v>0.04457812144127971</v>
+        <v>-0.003581432237326748</v>
       </c>
       <c r="E31">
-        <v>0.009809097181691302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.00328879293712045</v>
+      </c>
+      <c r="F31">
+        <v>-0.02944190063841131</v>
+      </c>
+      <c r="G31">
+        <v>0.04007635941215805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006848326920503765</v>
+        <v>-0.002081517827776381</v>
       </c>
       <c r="C32">
-        <v>-0.01915527631505297</v>
+        <v>0.03218894277538319</v>
       </c>
       <c r="D32">
-        <v>-0.0001967477501928282</v>
+        <v>0.004088373777737291</v>
       </c>
       <c r="E32">
-        <v>0.02927317027788992</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01272179963173106</v>
+      </c>
+      <c r="F32">
+        <v>0.05273577336989568</v>
+      </c>
+      <c r="G32">
+        <v>0.05897449441119132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01225329665056483</v>
+        <v>0.02597109474109725</v>
       </c>
       <c r="C33">
-        <v>-0.02074063990131549</v>
+        <v>0.04683408565380627</v>
       </c>
       <c r="D33">
-        <v>0.02351156873065562</v>
+        <v>-0.01455548154566853</v>
       </c>
       <c r="E33">
-        <v>-0.02193422426422227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02715684122320339</v>
+      </c>
+      <c r="F33">
+        <v>0.03017577321742439</v>
+      </c>
+      <c r="G33">
+        <v>0.0477709720881228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004738701839435113</v>
+        <v>0.03796773563279511</v>
       </c>
       <c r="C34">
-        <v>-0.01811558089010579</v>
+        <v>0.05783738380240645</v>
       </c>
       <c r="D34">
-        <v>0.04824323735103583</v>
+        <v>0.004475455852801969</v>
       </c>
       <c r="E34">
-        <v>0.007883919546443465</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.00352106152267707</v>
+      </c>
+      <c r="F34">
+        <v>0.02830367667887186</v>
+      </c>
+      <c r="G34">
+        <v>0.04397152958856049</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01196021559920194</v>
+        <v>0.01106644852947084</v>
       </c>
       <c r="C36">
-        <v>-0.01812439212240115</v>
+        <v>0.007553831708709218</v>
       </c>
       <c r="D36">
-        <v>0.001579884803335231</v>
+        <v>-0.01150479094195159</v>
       </c>
       <c r="E36">
-        <v>0.004102743517437856</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0004589931730880257</v>
+      </c>
+      <c r="F36">
+        <v>-0.003292428880210403</v>
+      </c>
+      <c r="G36">
+        <v>0.03237047732559651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.005831354359421366</v>
+        <v>0.03113744862893695</v>
       </c>
       <c r="C38">
-        <v>-0.02839076058898986</v>
+        <v>0.02846598459125637</v>
       </c>
       <c r="D38">
-        <v>0.02200382726165484</v>
+        <v>0.007599807724272638</v>
       </c>
       <c r="E38">
-        <v>0.005412349814471215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.005694154279573776</v>
+      </c>
+      <c r="F38">
+        <v>-0.003391575064991139</v>
+      </c>
+      <c r="G38">
+        <v>0.04165093864641386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005628649807916401</v>
+        <v>0.03011485311382514</v>
       </c>
       <c r="C39">
-        <v>0.01915919241739102</v>
+        <v>0.0804464569525335</v>
       </c>
       <c r="D39">
-        <v>0.09114709449111426</v>
+        <v>-0.01210539142993724</v>
       </c>
       <c r="E39">
-        <v>-0.00427574854827797</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0223065342448037</v>
+      </c>
+      <c r="F39">
+        <v>0.04149230257781327</v>
+      </c>
+      <c r="G39">
+        <v>0.03380041076411855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01009744475368121</v>
+        <v>0.01810697244534193</v>
       </c>
       <c r="C40">
-        <v>-0.00956902956399102</v>
+        <v>0.03233861882999843</v>
       </c>
       <c r="D40">
-        <v>0.03721370103351668</v>
+        <v>-0.01326693003821122</v>
       </c>
       <c r="E40">
-        <v>-0.002327432689150826</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01904564705056483</v>
+      </c>
+      <c r="F40">
+        <v>0.02130932440620673</v>
+      </c>
+      <c r="G40">
+        <v>0.03301406227628961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005222514060504438</v>
+        <v>0.01075151308264004</v>
       </c>
       <c r="C41">
-        <v>-0.02045113957576307</v>
+        <v>0.0003579372047078082</v>
       </c>
       <c r="D41">
-        <v>-0.01029566039182819</v>
+        <v>-0.003935413711154983</v>
       </c>
       <c r="E41">
-        <v>0.003696112428119241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001087634154180165</v>
+      </c>
+      <c r="F41">
+        <v>0.002352006672957943</v>
+      </c>
+      <c r="G41">
+        <v>0.02281722441344118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09339020004832951</v>
+        <v>0.01487655992232675</v>
       </c>
       <c r="C42">
-        <v>0.01024115355103399</v>
+        <v>0.04385884055928877</v>
       </c>
       <c r="D42">
-        <v>0.2804414328031525</v>
+        <v>-0.09500979837814055</v>
       </c>
       <c r="E42">
-        <v>-0.2700903475629762</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03811536533388296</v>
+      </c>
+      <c r="F42">
+        <v>-0.05296232951379683</v>
+      </c>
+      <c r="G42">
+        <v>-0.1579494913535776</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.006262945236885951</v>
+        <v>0.0277112566981965</v>
       </c>
       <c r="C43">
-        <v>-0.02202394100079898</v>
+        <v>0.01158401542260684</v>
       </c>
       <c r="D43">
-        <v>-0.01529343784907217</v>
+        <v>-0.004680900469388823</v>
       </c>
       <c r="E43">
-        <v>-0.001812134380172614</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.007973521441188451</v>
+      </c>
+      <c r="F43">
+        <v>0.001279229687589553</v>
+      </c>
+      <c r="G43">
+        <v>0.03328172309701817</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002938915722461959</v>
+        <v>0.01263326651844776</v>
       </c>
       <c r="C44">
-        <v>-0.002064667369657737</v>
+        <v>0.04857856773726308</v>
       </c>
       <c r="D44">
-        <v>0.02670395026236031</v>
+        <v>-0.006383310850423587</v>
       </c>
       <c r="E44">
-        <v>0.004563916929117064</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01622486088604295</v>
+      </c>
+      <c r="F44">
+        <v>0.00715664644130856</v>
+      </c>
+      <c r="G44">
+        <v>0.05027626569440639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01050951619527746</v>
+        <v>0.004425252628398419</v>
       </c>
       <c r="C46">
-        <v>-0.01603834025264066</v>
+        <v>0.01679453551396025</v>
       </c>
       <c r="D46">
-        <v>0.01082159106062631</v>
+        <v>-0.01159695418475257</v>
       </c>
       <c r="E46">
-        <v>0.003240096348873399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.00444108440961526</v>
+      </c>
+      <c r="F46">
+        <v>-0.01241142103936637</v>
+      </c>
+      <c r="G46">
+        <v>0.03679508269025457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001838446988411874</v>
+        <v>0.07435085151429653</v>
       </c>
       <c r="C47">
-        <v>-0.05373789685933514</v>
+        <v>0.06573191714462359</v>
       </c>
       <c r="D47">
-        <v>0.05592338358613258</v>
+        <v>0.004801565567079635</v>
       </c>
       <c r="E47">
-        <v>-0.0001413209067369802</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007630549046740016</v>
+      </c>
+      <c r="F47">
+        <v>-0.04894471684364859</v>
+      </c>
+      <c r="G47">
+        <v>0.03771832779994253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002819358164956079</v>
+        <v>0.01987199955729827</v>
       </c>
       <c r="C48">
-        <v>-0.02606129705316846</v>
+        <v>0.009800062768143892</v>
       </c>
       <c r="D48">
-        <v>0.01174477598791063</v>
+        <v>-0.0008675571867325129</v>
       </c>
       <c r="E48">
-        <v>0.003236901794933713</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003390231441573356</v>
+      </c>
+      <c r="F48">
+        <v>-0.01235729910063377</v>
+      </c>
+      <c r="G48">
+        <v>0.03852708379632882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002701310524552312</v>
+        <v>0.07837463875332695</v>
       </c>
       <c r="C50">
-        <v>-0.04410005446397119</v>
+        <v>0.06784342107074398</v>
       </c>
       <c r="D50">
-        <v>0.06206524064225438</v>
+        <v>0.003196870398066157</v>
       </c>
       <c r="E50">
-        <v>0.02695045167491028</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01054852015441848</v>
+      </c>
+      <c r="F50">
+        <v>-0.04997601966793563</v>
+      </c>
+      <c r="G50">
+        <v>0.06234623649067429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007113454584174244</v>
+        <v>0.0102534115037969</v>
       </c>
       <c r="C51">
-        <v>-0.01889222648633569</v>
+        <v>0.02571090236914635</v>
       </c>
       <c r="D51">
-        <v>-0.01273321864575682</v>
+        <v>-0.009221672989098062</v>
       </c>
       <c r="E51">
-        <v>0.01046867669052857</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01090285977955189</v>
+      </c>
+      <c r="F51">
+        <v>0.02399866561161835</v>
+      </c>
+      <c r="G51">
+        <v>0.06416759918117521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.004892224346955408</v>
+        <v>0.08216840615586803</v>
       </c>
       <c r="C53">
-        <v>-0.06834782096472257</v>
+        <v>0.08055686582047956</v>
       </c>
       <c r="D53">
-        <v>0.1169115872217268</v>
+        <v>0.004213416955049005</v>
       </c>
       <c r="E53">
-        <v>0.009271406222825256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03152323709597483</v>
+      </c>
+      <c r="F53">
+        <v>-0.05503984703751025</v>
+      </c>
+      <c r="G53">
+        <v>0.04104388982896547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0006045843549411908</v>
+        <v>0.03009673540987648</v>
       </c>
       <c r="C54">
-        <v>-0.03465142959755326</v>
+        <v>0.01151534173616262</v>
       </c>
       <c r="D54">
-        <v>-0.00909533084999011</v>
+        <v>0.0028644624868875</v>
       </c>
       <c r="E54">
-        <v>0.01176570551571723</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001836428863598868</v>
+      </c>
+      <c r="F54">
+        <v>-0.001071322333982089</v>
+      </c>
+      <c r="G54">
+        <v>0.04201837345957476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.002191257264635152</v>
+        <v>0.06955597305448274</v>
       </c>
       <c r="C55">
-        <v>-0.04924273338852483</v>
+        <v>0.07237499694975713</v>
       </c>
       <c r="D55">
-        <v>0.1013844247626892</v>
+        <v>0.004552709940889112</v>
       </c>
       <c r="E55">
-        <v>-0.00317409233793176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02285017090015161</v>
+      </c>
+      <c r="F55">
+        <v>-0.05280985606099081</v>
+      </c>
+      <c r="G55">
+        <v>0.02206994847384824</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.002445151197988732</v>
+        <v>0.1403841148939763</v>
       </c>
       <c r="C56">
-        <v>-0.09192370251876401</v>
+        <v>0.1059465011716076</v>
       </c>
       <c r="D56">
-        <v>0.1480019909470053</v>
+        <v>0.0128765277211332</v>
       </c>
       <c r="E56">
-        <v>-0.000632059792610592</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03659689939316076</v>
+      </c>
+      <c r="F56">
+        <v>-0.07915217319333893</v>
+      </c>
+      <c r="G56">
+        <v>0.01216596669047101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02380850061659649</v>
+        <v>0.009561087282781522</v>
       </c>
       <c r="C57">
-        <v>-0.0218315518992531</v>
+        <v>0.01052519527607568</v>
       </c>
       <c r="D57">
-        <v>0.04170841708356902</v>
+        <v>-0.02365355217214968</v>
       </c>
       <c r="E57">
-        <v>-0.001531632818403134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02681459786051978</v>
+      </c>
+      <c r="F57">
+        <v>0.01571706544073993</v>
+      </c>
+      <c r="G57">
+        <v>0.02387378590634687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01048155176574211</v>
+        <v>0.08007705916785338</v>
       </c>
       <c r="C58">
-        <v>-0.08684422886665032</v>
+        <v>0.04194659333389054</v>
       </c>
       <c r="D58">
-        <v>0.1012875497152109</v>
+        <v>-0.0176297854125699</v>
       </c>
       <c r="E58">
-        <v>-0.2048583524883087</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9494176948605184</v>
+      </c>
+      <c r="F58">
+        <v>-0.2053022019208264</v>
+      </c>
+      <c r="G58">
+        <v>-0.00590712782668614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02877562102633465</v>
+        <v>0.161324392713031</v>
       </c>
       <c r="C59">
-        <v>-0.2528291225758442</v>
+        <v>-0.2112725858561648</v>
       </c>
       <c r="D59">
-        <v>-0.1639142239598866</v>
+        <v>0.01566910297502485</v>
       </c>
       <c r="E59">
-        <v>-0.007246172610676446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.006314853779274016</v>
+      </c>
+      <c r="F59">
+        <v>0.001306148278703706</v>
+      </c>
+      <c r="G59">
+        <v>0.02175593153022093</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03249306469853346</v>
+        <v>0.2864642439634082</v>
       </c>
       <c r="C60">
-        <v>-0.1544965471529684</v>
+        <v>0.1038511584202974</v>
       </c>
       <c r="D60">
-        <v>0.08894941579292606</v>
+        <v>-0.0106040734845734</v>
       </c>
       <c r="E60">
-        <v>-0.03636156263982796</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01243737252714201</v>
+      </c>
+      <c r="F60">
+        <v>0.3502666680060623</v>
+      </c>
+      <c r="G60">
+        <v>-0.103732487035723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003034868691966069</v>
+        <v>0.03215909701871104</v>
       </c>
       <c r="C61">
-        <v>-0.006974998074103595</v>
+        <v>0.06552983173429096</v>
       </c>
       <c r="D61">
-        <v>0.0649343832839241</v>
+        <v>-0.005436271288231627</v>
       </c>
       <c r="E61">
-        <v>-0.001016612749545545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.009948712672199669</v>
+      </c>
+      <c r="F61">
+        <v>0.02439307840882739</v>
+      </c>
+      <c r="G61">
+        <v>0.03185623209281218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007188971964081722</v>
+        <v>0.01212150920373148</v>
       </c>
       <c r="C63">
-        <v>-0.007316425566238608</v>
+        <v>0.02795487075579515</v>
       </c>
       <c r="D63">
-        <v>0.006479228682997587</v>
+        <v>-0.008052111641981677</v>
       </c>
       <c r="E63">
-        <v>0.009969212776678015</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.004221642963751622</v>
+      </c>
+      <c r="F63">
+        <v>-0.0135277926495699</v>
+      </c>
+      <c r="G63">
+        <v>0.04458211578855674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.007160779493135956</v>
+        <v>0.05023810185238051</v>
       </c>
       <c r="C64">
-        <v>-0.02688816566056596</v>
+        <v>0.04203593871861682</v>
       </c>
       <c r="D64">
-        <v>0.06232250751961575</v>
+        <v>-0.005540539140011297</v>
       </c>
       <c r="E64">
-        <v>-0.007999210611669734</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.004909892650054959</v>
+      </c>
+      <c r="F64">
+        <v>0.007492273988243103</v>
+      </c>
+      <c r="G64">
+        <v>0.02941854308253791</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01752598523229453</v>
+        <v>0.08078094064497733</v>
       </c>
       <c r="C65">
-        <v>-0.02113601772688888</v>
+        <v>0.06075451009972358</v>
       </c>
       <c r="D65">
-        <v>0.09273397242054147</v>
+        <v>-0.01511910118801111</v>
       </c>
       <c r="E65">
-        <v>0.008260853755826135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01631529899996832</v>
+      </c>
+      <c r="F65">
+        <v>0.03397026747873259</v>
+      </c>
+      <c r="G65">
+        <v>0.01853640085412605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005410950799316872</v>
+        <v>0.04840339126180104</v>
       </c>
       <c r="C66">
-        <v>0.01066399794224963</v>
+        <v>0.1133982393349706</v>
       </c>
       <c r="D66">
-        <v>0.1183064284209512</v>
+        <v>-0.0120065388928961</v>
       </c>
       <c r="E66">
-        <v>-0.01784811785896538</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02777368823705909</v>
+      </c>
+      <c r="F66">
+        <v>0.05121561320860372</v>
+      </c>
+      <c r="G66">
+        <v>0.02860887065468795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0002946685411237051</v>
+        <v>0.05344447518744696</v>
       </c>
       <c r="C67">
-        <v>-0.04682355125979959</v>
+        <v>0.0328875392700743</v>
       </c>
       <c r="D67">
-        <v>0.0269860143593365</v>
+        <v>0.005681047097207958</v>
       </c>
       <c r="E67">
-        <v>0.003704110459117129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0005703880740788651</v>
+      </c>
+      <c r="F67">
+        <v>-0.006718559458147196</v>
+      </c>
+      <c r="G67">
+        <v>0.03919969145321422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04695827434411519</v>
+        <v>0.141876570692105</v>
       </c>
       <c r="C68">
-        <v>-0.2301061022781311</v>
+        <v>-0.2698222282014868</v>
       </c>
       <c r="D68">
-        <v>-0.1541183140868878</v>
+        <v>-0.002840257285093925</v>
       </c>
       <c r="E68">
-        <v>-0.01298760309541499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.007239560409282706</v>
+      </c>
+      <c r="F68">
+        <v>-0.040023994578367</v>
+      </c>
+      <c r="G68">
+        <v>0.02474037494048541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003287097983220513</v>
+        <v>0.07556847047045957</v>
       </c>
       <c r="C69">
-        <v>-0.03796761229972178</v>
+        <v>0.06757473276773218</v>
       </c>
       <c r="D69">
-        <v>0.05953505928302408</v>
+        <v>0.008780405167006478</v>
       </c>
       <c r="E69">
-        <v>0.005020920804499408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02538221386288357</v>
+      </c>
+      <c r="F69">
+        <v>-0.03185080166811</v>
+      </c>
+      <c r="G69">
+        <v>0.03908428166646456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03344055205742175</v>
+        <v>0.1378292027836428</v>
       </c>
       <c r="C71">
-        <v>-0.2006908641731919</v>
+        <v>-0.2333851693779342</v>
       </c>
       <c r="D71">
-        <v>-0.143078062102543</v>
+        <v>0.006118902327476469</v>
       </c>
       <c r="E71">
-        <v>0.001498194564395696</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02609783291811105</v>
+      </c>
+      <c r="F71">
+        <v>-0.008142062129128987</v>
+      </c>
+      <c r="G71">
+        <v>0.037266745477122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001855622089894651</v>
+        <v>0.08369538308398722</v>
       </c>
       <c r="C72">
-        <v>-0.04602858531307658</v>
+        <v>0.07366501549708059</v>
       </c>
       <c r="D72">
-        <v>0.1332520226294309</v>
+        <v>0.008276745924309445</v>
       </c>
       <c r="E72">
-        <v>-0.01713097422801689</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.005821545260678804</v>
+      </c>
+      <c r="F72">
+        <v>0.04066968496482687</v>
+      </c>
+      <c r="G72">
+        <v>0.01366843679030547</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04676143381440792</v>
+        <v>0.397550148815042</v>
       </c>
       <c r="C73">
-        <v>-0.1871765918524187</v>
+        <v>0.1175565427706794</v>
       </c>
       <c r="D73">
-        <v>0.1688913055383442</v>
+        <v>-0.01663147616826042</v>
       </c>
       <c r="E73">
-        <v>-0.09436728110211082</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.04398864752932553</v>
+      </c>
+      <c r="F73">
+        <v>0.5455555846561907</v>
+      </c>
+      <c r="G73">
+        <v>-0.1846130382961503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0003690878973058295</v>
+        <v>0.1110447333979979</v>
       </c>
       <c r="C74">
-        <v>-0.08431474467120413</v>
+        <v>0.11761897756575</v>
       </c>
       <c r="D74">
-        <v>0.1535052785284758</v>
+        <v>0.009854835435453747</v>
       </c>
       <c r="E74">
-        <v>-0.007639768196965451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01532725297561616</v>
+      </c>
+      <c r="F74">
+        <v>-0.07090528960604961</v>
+      </c>
+      <c r="G74">
+        <v>0.04815361433060934</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.005175331740249267</v>
+        <v>0.2478196292326528</v>
       </c>
       <c r="C75">
-        <v>-0.1969424415592307</v>
+        <v>0.1569236425524478</v>
       </c>
       <c r="D75">
-        <v>0.2781690601653941</v>
+        <v>0.02980811834810055</v>
       </c>
       <c r="E75">
-        <v>-0.02679374586441934</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05031849151918266</v>
+      </c>
+      <c r="F75">
+        <v>-0.187007014472605</v>
+      </c>
+      <c r="G75">
+        <v>-0.02849924195331738</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.003151791299662264</v>
+        <v>0.1252474197634059</v>
       </c>
       <c r="C76">
-        <v>-0.1334219947075286</v>
+        <v>0.1213894031505217</v>
       </c>
       <c r="D76">
-        <v>0.2260955789607897</v>
+        <v>0.02045216863564926</v>
       </c>
       <c r="E76">
-        <v>0.006033683330875339</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04814507912104817</v>
+      </c>
+      <c r="F76">
+        <v>-0.1164752716238149</v>
+      </c>
+      <c r="G76">
+        <v>0.02509826950290513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0118594781562195</v>
+        <v>0.06519740822563473</v>
       </c>
       <c r="C77">
-        <v>-0.01660906718478994</v>
+        <v>0.06232973989974459</v>
       </c>
       <c r="D77">
-        <v>0.05275725836338484</v>
+        <v>-0.01220223858775323</v>
       </c>
       <c r="E77">
-        <v>-0.006297067658947234</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04946934920411829</v>
+      </c>
+      <c r="F77">
+        <v>0.01761575885630943</v>
+      </c>
+      <c r="G77">
+        <v>0.0471335455585687</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004042769339774656</v>
+        <v>0.03973667271744999</v>
       </c>
       <c r="C78">
-        <v>-0.01074430639835799</v>
+        <v>0.05096957924330937</v>
       </c>
       <c r="D78">
-        <v>0.06667918924072587</v>
+        <v>-0.005738698523046455</v>
       </c>
       <c r="E78">
-        <v>0.001314253807750229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02108647763589358</v>
+      </c>
+      <c r="F78">
+        <v>0.04527228056650741</v>
+      </c>
+      <c r="G78">
+        <v>0.04038723971553034</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01600889221793797</v>
+        <v>0.05345863384445175</v>
       </c>
       <c r="C80">
-        <v>-0.1202809867994979</v>
+        <v>0.06307025082284956</v>
       </c>
       <c r="D80">
-        <v>0.1625491881668272</v>
+        <v>-0.01326537352731629</v>
       </c>
       <c r="E80">
-        <v>0.9137524981255042</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03457934214159038</v>
+      </c>
+      <c r="F80">
+        <v>0.06648943239399004</v>
+      </c>
+      <c r="G80">
+        <v>0.8786543309247152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.004257825995921369</v>
+        <v>0.1451112883176885</v>
       </c>
       <c r="C81">
-        <v>-0.1215906104024096</v>
+        <v>0.09605250162288445</v>
       </c>
       <c r="D81">
-        <v>0.1682614863415817</v>
+        <v>0.01498465530039227</v>
       </c>
       <c r="E81">
-        <v>-0.00629041424174147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0279720944908919</v>
+      </c>
+      <c r="F81">
+        <v>-0.1198676800922914</v>
+      </c>
+      <c r="G81">
+        <v>0.02216251204970026</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.0945468390902923</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05120689150375936</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.004803923286739461</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07376622668794924</v>
+      </c>
+      <c r="F82">
+        <v>-0.01071230737154282</v>
+      </c>
+      <c r="G82">
+        <v>0.0114044857377809</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006819076339658404</v>
+        <v>0.03138646416667565</v>
       </c>
       <c r="C83">
-        <v>-0.02631544619350164</v>
+        <v>0.02041156742180222</v>
       </c>
       <c r="D83">
-        <v>0.0224872503920558</v>
+        <v>-0.005181531419705608</v>
       </c>
       <c r="E83">
-        <v>-0.00336331474873107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02544142774405726</v>
+      </c>
+      <c r="F83">
+        <v>0.02375471498660289</v>
+      </c>
+      <c r="G83">
+        <v>0.02843342437288286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01173824770236924</v>
+        <v>0.2229793328707794</v>
       </c>
       <c r="C85">
-        <v>-0.1487462235964804</v>
+        <v>0.1509081510692989</v>
       </c>
       <c r="D85">
-        <v>0.2637793156918848</v>
+        <v>0.01816988292424317</v>
       </c>
       <c r="E85">
-        <v>-0.0296839221841782</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09258871586776503</v>
+      </c>
+      <c r="F85">
+        <v>-0.1647069909790765</v>
+      </c>
+      <c r="G85">
+        <v>-0.04963470857323239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006741504309956653</v>
+        <v>0.009221154595748685</v>
       </c>
       <c r="C86">
-        <v>-0.02554239633857525</v>
+        <v>0.01547603494705181</v>
       </c>
       <c r="D86">
-        <v>0.008024559466697534</v>
+        <v>-0.01002408969320089</v>
       </c>
       <c r="E86">
-        <v>-0.02070165632077769</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03319396463504466</v>
+      </c>
+      <c r="F86">
+        <v>0.0381762770573447</v>
+      </c>
+      <c r="G86">
+        <v>0.06617234455856993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007379616090673415</v>
+        <v>0.01864112562362649</v>
       </c>
       <c r="C87">
-        <v>-0.01176847924440337</v>
+        <v>0.02492442862694868</v>
       </c>
       <c r="D87">
-        <v>0.04093443112343947</v>
+        <v>-0.01100389365906109</v>
       </c>
       <c r="E87">
-        <v>-0.0004329522704852183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08230125267939994</v>
+      </c>
+      <c r="F87">
+        <v>0.03233057519162692</v>
+      </c>
+      <c r="G87">
+        <v>0.05644903998197968</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02652502666736486</v>
+        <v>0.08831081046655911</v>
       </c>
       <c r="C88">
-        <v>-0.03834884722303056</v>
+        <v>0.06439691649595213</v>
       </c>
       <c r="D88">
-        <v>0.0344305189484703</v>
+        <v>-0.0227261548050343</v>
       </c>
       <c r="E88">
-        <v>-0.003027352059568998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01419334629580448</v>
+      </c>
+      <c r="F88">
+        <v>-0.01408183767692768</v>
+      </c>
+      <c r="G88">
+        <v>0.03500346342289792</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06326732300463675</v>
+        <v>0.2285277279814263</v>
       </c>
       <c r="C89">
-        <v>-0.3642369690518301</v>
+        <v>-0.3605859390887684</v>
       </c>
       <c r="D89">
-        <v>-0.2343128631150086</v>
+        <v>0.004888849177301014</v>
       </c>
       <c r="E89">
-        <v>-0.02250622711422777</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01798980367967931</v>
+      </c>
+      <c r="F89">
+        <v>-0.02556204544543259</v>
+      </c>
+      <c r="G89">
+        <v>0.0368117268627553</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04841879571500047</v>
+        <v>0.2005717764788397</v>
       </c>
       <c r="C90">
-        <v>-0.2828703911357237</v>
+        <v>-0.3250040047670543</v>
       </c>
       <c r="D90">
-        <v>-0.2202391503966886</v>
+        <v>0.008796026509339737</v>
       </c>
       <c r="E90">
-        <v>-0.02156115632308344</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01814222938649116</v>
+      </c>
+      <c r="F90">
+        <v>-0.0446618805120419</v>
+      </c>
+      <c r="G90">
+        <v>0.007271372848862477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0009879141331686331</v>
+        <v>0.1984846197443882</v>
       </c>
       <c r="C91">
-        <v>-0.1576674959502312</v>
+        <v>0.1412583303322516</v>
       </c>
       <c r="D91">
-        <v>0.2372195424473558</v>
+        <v>0.02370627407478084</v>
       </c>
       <c r="E91">
-        <v>-0.01100340004090974</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06755574923150061</v>
+      </c>
+      <c r="F91">
+        <v>-0.1603153073041481</v>
+      </c>
+      <c r="G91">
+        <v>0.01214287510927496</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.0142710477164141</v>
+        <v>0.2073684434619074</v>
       </c>
       <c r="C92">
-        <v>-0.3175964409424618</v>
+        <v>-0.2614873081686229</v>
       </c>
       <c r="D92">
-        <v>-0.1006928489558641</v>
+        <v>0.04567489048933177</v>
       </c>
       <c r="E92">
-        <v>-0.01698447906163067</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.007616230317419221</v>
+      </c>
+      <c r="F92">
+        <v>-0.07274572339450966</v>
+      </c>
+      <c r="G92">
+        <v>0.07345944069605936</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04597451003620615</v>
+        <v>0.2308877927781486</v>
       </c>
       <c r="C93">
-        <v>-0.3195154959194899</v>
+        <v>-0.3244791225819102</v>
       </c>
       <c r="D93">
-        <v>-0.2134657556119343</v>
+        <v>0.0165246688906154</v>
       </c>
       <c r="E93">
-        <v>-0.04695209354102144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.003433827161711702</v>
+      </c>
+      <c r="F93">
+        <v>-0.03799963645926319</v>
+      </c>
+      <c r="G93">
+        <v>-0.0008081242800487934</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.0231706150214739</v>
+        <v>0.3034258048036881</v>
       </c>
       <c r="C94">
-        <v>-0.196650730091045</v>
+        <v>0.1907086943068494</v>
       </c>
       <c r="D94">
-        <v>0.2531864487746145</v>
+        <v>0.01471994671918628</v>
       </c>
       <c r="E94">
-        <v>-0.05982932540019219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.14405640265382</v>
+      </c>
+      <c r="F94">
+        <v>-0.5050844394751203</v>
+      </c>
+      <c r="G94">
+        <v>-0.1477218651302288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.005344745960504471</v>
+        <v>0.08220555055663528</v>
       </c>
       <c r="C95">
-        <v>-0.04687956871793669</v>
+        <v>0.07372377118507184</v>
       </c>
       <c r="D95">
-        <v>0.09456001978221605</v>
+        <v>0.007858866798279357</v>
       </c>
       <c r="E95">
-        <v>-0.1116433653960665</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06544148684862815</v>
+      </c>
+      <c r="F95">
+        <v>0.1601223820683235</v>
+      </c>
+      <c r="G95">
+        <v>-0.07698486426165281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.007681069823985189</v>
+        <v>0.1985274915153707</v>
       </c>
       <c r="C98">
-        <v>-0.1603010673441483</v>
+        <v>0.04440464729395967</v>
       </c>
       <c r="D98">
-        <v>0.1256293697150096</v>
+        <v>0.01460863597587969</v>
       </c>
       <c r="E98">
-        <v>-0.0540612489244012</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05862597073209158</v>
+      </c>
+      <c r="F98">
+        <v>0.2514021936836411</v>
+      </c>
+      <c r="G98">
+        <v>-0.03844134344918563</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00710014993306838</v>
+        <v>0.01036574813606705</v>
       </c>
       <c r="C101">
-        <v>-0.01659993562370811</v>
+        <v>0.02006905399332899</v>
       </c>
       <c r="D101">
-        <v>0.01262095433219845</v>
+        <v>-0.007266651661884443</v>
       </c>
       <c r="E101">
-        <v>0.007992705747602078</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007365471613429484</v>
+      </c>
+      <c r="F101">
+        <v>-0.01070674649615722</v>
+      </c>
+      <c r="G101">
+        <v>0.04008464528959733</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01532420771963277</v>
+        <v>0.1192153491245984</v>
       </c>
       <c r="C102">
-        <v>-0.08916832716491858</v>
+        <v>0.0854413517697894</v>
       </c>
       <c r="D102">
-        <v>0.1294897088108829</v>
+        <v>-0.001520720848031515</v>
       </c>
       <c r="E102">
-        <v>-0.0142148304084024</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02818139492300458</v>
+      </c>
+      <c r="F102">
+        <v>-0.03448829634629477</v>
+      </c>
+      <c r="G102">
+        <v>-0.0004906983514891119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001644009471310526</v>
+        <v>0.003690432768445897</v>
       </c>
       <c r="C103">
-        <v>-0.01309648226222095</v>
+        <v>0.004827484608431813</v>
       </c>
       <c r="D103">
-        <v>0.02655134919654572</v>
+        <v>-0.0002767248007712066</v>
       </c>
       <c r="E103">
-        <v>0.01417715763402579</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002222968706497594</v>
+      </c>
+      <c r="F103">
+        <v>-0.009374018911326045</v>
+      </c>
+      <c r="G103">
+        <v>0.01719526105126252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9826354212243368</v>
+        <v>0.02964547284256217</v>
       </c>
       <c r="C104">
-        <v>0.1262750242947375</v>
+        <v>-0.03765403924743345</v>
       </c>
       <c r="D104">
-        <v>-0.009668611434461535</v>
+        <v>-0.9874354464078705</v>
       </c>
       <c r="E104">
-        <v>0.02554549586175267</v>
+        <v>0.03944428964708498</v>
+      </c>
+      <c r="F104">
+        <v>-0.04115174746859843</v>
+      </c>
+      <c r="G104">
+        <v>-0.010149469322974</v>
       </c>
     </row>
   </sheetData>
